--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>254519.029068937</v>
+        <v>252631.4475525352</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>68.79815673085751</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>406.829451203085</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>97.58117330968069</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>99.31129271000201</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>80.12954040750049</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.602837505177126</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>97.367793941671</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>139.4363092953502</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>100.7510363279412</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>51.82011796124971</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>30.54110646053108</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>36.1772240484768</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>164.3675597136116</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>57.97948033333839</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>101.0930119927694</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>78.90719087569397</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>166.0580064417727</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.291051064111965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>12.56124929351122</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>23.39375411341102</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>101.1426547140128</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>46.18719652447437</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.043564470071</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>93.41221638965548</v>
       </c>
       <c r="E31" t="n">
-        <v>19.67402846883021</v>
+        <v>91.2307060180123</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>90.21779139437437</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>93.71057173897925</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>55.21598883571512</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>54.76109577523593</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>25.65882991138018</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1310.651480925462</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C2" t="n">
-        <v>1310.651480925462</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="D2" t="n">
-        <v>952.385782318712</v>
+        <v>857.6155747668879</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>471.8273221686437</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>464.8818214194402</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>2070.717079250664</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.251320989584</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.251320989584</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="3">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>323.2572191628421</v>
+        <v>340.388532134052</v>
       </c>
       <c r="C4" t="n">
-        <v>323.2572191628421</v>
+        <v>340.388532134052</v>
       </c>
       <c r="D4" t="n">
-        <v>323.2572191628421</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>323.2572191628421</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>323.2572191628421</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>323.2572191628421</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>323.2572191628421</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>323.2572191628421</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1954.141365880777</v>
+        <v>1258.850788876759</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>1258.850788876759</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1258.850788876759</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>873.0625362785152</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>462.0766314889076</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>2344.380435748108</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y5" t="n">
-        <v>2340.741205944899</v>
+        <v>1645.450628940881</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="C7" t="n">
-        <v>513.8405610245969</v>
+        <v>344.9043780966903</v>
       </c>
       <c r="D7" t="n">
-        <v>513.8405610245969</v>
+        <v>194.7877386843545</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>194.7877386843545</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>770.969123535386</v>
+        <v>1507.089911220684</v>
       </c>
       <c r="C8" t="n">
-        <v>402.0066065949742</v>
+        <v>1138.127394280272</v>
       </c>
       <c r="D8" t="n">
-        <v>402.0066065949742</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2644.805537522011</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2468.628049836181</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2468.628049836181</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2214.866264474272</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1883.803377130702</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1531.034721860588</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X8" t="n">
-        <v>1157.568963599508</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1157.568963599508</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,16 +4884,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.8624625746712</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>667.8624625746712</v>
+        <v>662.1694145060392</v>
       </c>
       <c r="U10" t="n">
-        <v>667.8624625746712</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="V10" t="n">
-        <v>667.8624625746712</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="W10" t="n">
-        <v>667.8624625746712</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="X10" t="n">
-        <v>667.8624625746712</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y10" t="n">
-        <v>667.8624625746712</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="11">
@@ -5018,34 +5018,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5063,28 +5063,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>263.2449295548431</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,7 +5215,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
@@ -5230,19 +5230,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655734</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286129</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286129</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y13" t="n">
-        <v>444.8933943850827</v>
+        <v>896.249480665218</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,22 +5273,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5300,28 +5300,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>349.7492534403925</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>751.4342788065928</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706323</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W16" t="n">
-        <v>531.3977182706323</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="X16" t="n">
-        <v>531.3977182706323</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="Y16" t="n">
-        <v>531.3977182706323</v>
+        <v>920.3704617344997</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5537,10 +5537,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5558,7 +5558,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>525.6009593486384</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="C19" t="n">
-        <v>356.6647764207315</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D19" t="n">
-        <v>356.6647764207315</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,13 +5689,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
@@ -5710,13 +5710,13 @@
         <v>1044.311772267568</v>
       </c>
       <c r="W19" t="n">
-        <v>754.8946022306072</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X19" t="n">
-        <v>526.9050513325899</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y19" t="n">
-        <v>525.6009593486384</v>
+        <v>526.9050513325897</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011508</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>985.7136853104473</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>985.7136853104473</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>985.7136853104473</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305972</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>268.7602397026903</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>268.7602397026903</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>120.8471461202972</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>120.8471461202972</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>120.8471461202972</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>120.8471461202972</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771462</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>955.1031435655748</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286143</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305972</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305972</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,28 +6245,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,19 +6306,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>994.3109288932102</v>
+        <v>395.2468244550145</v>
       </c>
       <c r="C28" t="n">
-        <v>825.3747459653033</v>
+        <v>395.2468244550145</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2581065529675</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1396.75197286698</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1396.75197286698</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1396.75197286698</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>1396.75197286698</v>
+        <v>986.0022165609672</v>
       </c>
       <c r="V28" t="n">
-        <v>1396.75197286698</v>
+        <v>731.3177283550805</v>
       </c>
       <c r="W28" t="n">
-        <v>1396.75197286698</v>
+        <v>441.9005583181199</v>
       </c>
       <c r="X28" t="n">
-        <v>1396.75197286698</v>
+        <v>395.2468244550145</v>
       </c>
       <c r="Y28" t="n">
-        <v>1175.95939372345</v>
+        <v>395.2468244550145</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6449,64 +6449,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030874</v>
+        <v>750.8748194215265</v>
       </c>
       <c r="C31" t="n">
-        <v>565.4200295030874</v>
+        <v>637.6995017749902</v>
       </c>
       <c r="D31" t="n">
-        <v>471.0642553721227</v>
+        <v>543.343727644025</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430017</v>
+        <v>451.1914993430024</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264622</v>
+        <v>360.0624171264627</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>247.6479607276539</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569678</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933498</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667502</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962043</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096191</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661996</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.33673373748</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818933</v>
+        <v>902.6804289818907</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652468</v>
+        <v>902.6804289818907</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030874</v>
+        <v>876.7624189703956</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,34 +6716,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,34 +6920,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504517</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045204</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7157,25 +7157,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,7 +7184,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506723</v>
@@ -7555,19 +7555,19 @@
         <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254956</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,19 +7728,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7822,16 +7822,16 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>87.16935584025367</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>253.7371603504734</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.879261385016235</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23470,7 +23470,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>160.6051730187564</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>66.15380910585843</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>69.70828214251839</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.188814656855162</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.2936022879828</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>167.2707308884261</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,25 +24364,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>87.02549135086089</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>8.821697689780009</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>179.5224588645628</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>71.5566775491819</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604803</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>137.7225668121577</v>
       </c>
     </row>
     <row r="32">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1119806.584728525</v>
+        <v>1119806.584728524</v>
       </c>
     </row>
     <row r="12">
@@ -26314,28 +26314,28 @@
         <v>328416.7079457134</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
         <v>312823.2477901669</v>
       </c>
       <c r="F2" t="n">
-        <v>312823.247790167</v>
+        <v>312823.2477901669</v>
       </c>
       <c r="G2" t="n">
-        <v>312823.247790167</v>
+        <v>312823.2477901669</v>
       </c>
       <c r="H2" t="n">
-        <v>312823.2477901671</v>
+        <v>312823.2477901669</v>
       </c>
       <c r="I2" t="n">
         <v>312823.247790167</v>
       </c>
       <c r="J2" t="n">
-        <v>312823.2477901669</v>
+        <v>312823.247790167</v>
       </c>
       <c r="K2" t="n">
         <v>325457.7098762157</v>
@@ -26344,16 +26344,16 @@
         <v>328416.7079457134</v>
       </c>
       <c r="M2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="N2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="O2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457137</v>
+        <v>328416.7079457135</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284582</v>
+        <v>44162.60530284527</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086687</v>
+        <v>10342.90680086705</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028458</v>
+        <v>44162.60530284546</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106722</v>
+        <v>40339.23010106719</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
         <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819118</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26482,22 +26482,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510043.117118765</v>
+        <v>-510043.1171187649</v>
       </c>
       <c r="C6" t="n">
-        <v>79924.76209577944</v>
+        <v>79924.76209577933</v>
       </c>
       <c r="D6" t="n">
-        <v>79924.76209577944</v>
+        <v>79924.76209577956</v>
       </c>
       <c r="E6" t="n">
-        <v>-326498.7222223167</v>
+        <v>-326596.1813482888</v>
       </c>
       <c r="F6" t="n">
-        <v>198661.3142545797</v>
+        <v>198563.8551286074</v>
       </c>
       <c r="G6" t="n">
-        <v>198661.3142545797</v>
+        <v>198563.8551286074</v>
       </c>
       <c r="H6" t="n">
-        <v>198661.3142545797</v>
+        <v>198563.8551286073</v>
       </c>
       <c r="I6" t="n">
-        <v>198661.3142545798</v>
+        <v>198563.8551286074</v>
       </c>
       <c r="J6" t="n">
-        <v>22238.09506198659</v>
+        <v>22140.6359360146</v>
       </c>
       <c r="K6" t="n">
-        <v>144327.6659420798</v>
+        <v>144309.1722041461</v>
       </c>
       <c r="L6" t="n">
-        <v>175765.3004966299</v>
+        <v>175765.3004966297</v>
       </c>
       <c r="M6" t="n">
-        <v>51307.19206365944</v>
+        <v>51307.19206365979</v>
       </c>
       <c r="N6" t="n">
-        <v>186108.2072974966</v>
+        <v>186108.2072974969</v>
       </c>
       <c r="O6" t="n">
-        <v>186108.2072974968</v>
+        <v>186108.207297497</v>
       </c>
       <c r="P6" t="n">
-        <v>141945.6019946513</v>
+        <v>141945.6019946515</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26750,19 +26750,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.2032566285568</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108359</v>
+        <v>12.92863350108381</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.2032566285568</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>313.1322133414043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.954718817709988</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>82.2508068722566</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>47.12266993656716</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>333.6546296132945</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.6351011508764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>49.06616870489817</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5.98473872758106</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>253.9320052927418</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.658284613562017</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>116.1240855196268</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>188.8578814096075</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855687</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>369.5330580813618</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>536.1008625915816</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556563</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556562</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412239</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584674</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084854</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341604</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403576</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043162</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
